--- a/teaching/traditional_assets/database/data/south_korea/south_korea_real_estate_general_diversified.xlsx
+++ b/teaching/traditional_assets/database/data/south_korea/south_korea_real_estate_general_diversified.xlsx
@@ -591,13 +591,10 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.136</v>
+        <v>0.0495</v>
       </c>
       <c r="E2">
-        <v>0.157</v>
-      </c>
-      <c r="F2">
-        <v>-0.07150000000000001</v>
+        <v>0.0444</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -612,91 +609,91 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>104.4</v>
+        <v>72.2</v>
       </c>
       <c r="L2">
-        <v>0.5538461538461539</v>
+        <v>0.5197984161267099</v>
       </c>
       <c r="M2">
-        <v>36.85599999999999</v>
+        <v>30.5803</v>
       </c>
       <c r="N2">
-        <v>0.08349796103307656</v>
+        <v>0.07202143193593971</v>
       </c>
       <c r="O2">
-        <v>0.3530268199233716</v>
+        <v>0.4235498614958449</v>
       </c>
       <c r="P2">
-        <v>22.356</v>
+        <v>15.7803</v>
       </c>
       <c r="Q2">
-        <v>0.05064793837788854</v>
+        <v>0.03716509656146962</v>
       </c>
       <c r="R2">
-        <v>0.2141379310344827</v>
+        <v>0.2185637119113573</v>
       </c>
       <c r="S2">
-        <v>14.5</v>
+        <v>14.8</v>
       </c>
       <c r="T2">
-        <v>0.3934230518775775</v>
+        <v>0.483971707275599</v>
       </c>
       <c r="U2">
-        <v>64.7</v>
+        <v>207.1</v>
       </c>
       <c r="V2">
-        <v>0.1465790666062528</v>
+        <v>0.487753179463024</v>
       </c>
       <c r="W2">
-        <v>0.1467116357504216</v>
+        <v>0.0991349718522587</v>
       </c>
       <c r="X2">
-        <v>0.07699447095441483</v>
+        <v>0.06316325696491433</v>
       </c>
       <c r="Y2">
-        <v>0.06971716479600676</v>
+        <v>0.03597171488734437</v>
       </c>
       <c r="Z2">
-        <v>0.1765163078594237</v>
+        <v>0.1380852967491799</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.05396203553978468</v>
+        <v>0.04067772647105903</v>
       </c>
       <c r="AC2">
-        <v>-0.05396203553978468</v>
+        <v>-0.04067772647105903</v>
       </c>
       <c r="AD2">
-        <v>342.3</v>
+        <v>415.3</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>342.3</v>
+        <v>415.3</v>
       </c>
       <c r="AG2">
-        <v>277.6</v>
+        <v>208.2</v>
       </c>
       <c r="AH2">
-        <v>0.4367742758708689</v>
+        <v>0.4944636266222169</v>
       </c>
       <c r="AI2">
-        <v>0.3187150837988827</v>
+        <v>0.3479681608713867</v>
       </c>
       <c r="AJ2">
-        <v>0.3860917941585536</v>
+        <v>0.3290139064475348</v>
       </c>
       <c r="AK2">
-        <v>0.2750421083919548</v>
+        <v>0.2110705596107056</v>
       </c>
       <c r="AL2">
         <v>0</v>
       </c>
       <c r="AM2">
-        <v>-0.109</v>
+        <v>-0.209</v>
       </c>
       <c r="AQ2">
         <v>-0</v>
@@ -719,13 +716,10 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.136</v>
+        <v>0.0495</v>
       </c>
       <c r="E3">
-        <v>0.157</v>
-      </c>
-      <c r="F3">
-        <v>-0.07150000000000001</v>
+        <v>0.0444</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -740,91 +734,91 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>104.4</v>
+        <v>72.2</v>
       </c>
       <c r="L3">
-        <v>0.5538461538461539</v>
+        <v>0.5197984161267099</v>
       </c>
       <c r="M3">
-        <v>36.85599999999999</v>
+        <v>30.5803</v>
       </c>
       <c r="N3">
-        <v>0.08349796103307656</v>
+        <v>0.07202143193593971</v>
       </c>
       <c r="O3">
-        <v>0.3530268199233716</v>
+        <v>0.4235498614958449</v>
       </c>
       <c r="P3">
-        <v>22.356</v>
+        <v>15.7803</v>
       </c>
       <c r="Q3">
-        <v>0.05064793837788854</v>
+        <v>0.03716509656146962</v>
       </c>
       <c r="R3">
-        <v>0.2141379310344827</v>
+        <v>0.2185637119113573</v>
       </c>
       <c r="S3">
-        <v>14.5</v>
+        <v>14.8</v>
       </c>
       <c r="T3">
-        <v>0.3934230518775775</v>
+        <v>0.483971707275599</v>
       </c>
       <c r="U3">
-        <v>64.7</v>
+        <v>207.1</v>
       </c>
       <c r="V3">
-        <v>0.1465790666062528</v>
+        <v>0.487753179463024</v>
       </c>
       <c r="W3">
-        <v>0.1467116357504216</v>
+        <v>0.0991349718522587</v>
       </c>
       <c r="X3">
-        <v>0.07699447095441483</v>
+        <v>0.06316325696491433</v>
       </c>
       <c r="Y3">
-        <v>0.06971716479600676</v>
+        <v>0.03597171488734437</v>
       </c>
       <c r="Z3">
-        <v>0.1765163078594237</v>
+        <v>0.1380852967491799</v>
       </c>
       <c r="AA3">
         <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.05396203553978468</v>
+        <v>0.04067772647105903</v>
       </c>
       <c r="AC3">
-        <v>-0.05396203553978468</v>
+        <v>-0.04067772647105903</v>
       </c>
       <c r="AD3">
-        <v>342.3</v>
+        <v>415.3</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>342.3</v>
+        <v>415.3</v>
       </c>
       <c r="AG3">
-        <v>277.6</v>
+        <v>208.2</v>
       </c>
       <c r="AH3">
-        <v>0.4367742758708689</v>
+        <v>0.4944636266222169</v>
       </c>
       <c r="AI3">
-        <v>0.3187150837988827</v>
+        <v>0.3479681608713867</v>
       </c>
       <c r="AJ3">
-        <v>0.3860917941585536</v>
+        <v>0.3290139064475348</v>
       </c>
       <c r="AK3">
-        <v>0.2750421083919548</v>
+        <v>0.2110705596107056</v>
       </c>
       <c r="AL3">
         <v>0</v>
       </c>
       <c r="AM3">
-        <v>-0.109</v>
+        <v>-0.209</v>
       </c>
       <c r="AQ3">
         <v>-0</v>
